--- a/assets/generated/model3/VehicleUsage.xlsx
+++ b/assets/generated/model3/VehicleUsage.xlsx
@@ -340,7 +340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -356,26 +356,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
